--- a/EyeGaze/SubjData/P39C3 DATA.xlsx
+++ b/EyeGaze/SubjData/P39C3 DATA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
@@ -14,7 +14,7 @@
     <definedName name="Coding_Practice_1" localSheetId="1">Tracking!#REF!</definedName>
     <definedName name="JC_23_on_offset" localSheetId="0">Onset_Offset!$D$2:$D$17</definedName>
     <definedName name="MM_4_reliability" localSheetId="1">Tracking!#REF!</definedName>
-    <definedName name="P39C3" localSheetId="1">Tracking!$F$2:$G$160</definedName>
+    <definedName name="P39C3" localSheetId="1">Tracking!$F$2:$G$159</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="222">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>8A.P.OFFSET</t>
-  </si>
-  <si>
-    <t>00:01:49:04</t>
   </si>
   <si>
     <t>00:02:51:05</t>
@@ -748,7 +745,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,8 +781,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -869,7 +867,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -909,6 +907,7 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -948,6 +947,7 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1324,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
         <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
         <v>206</v>
-      </c>
-      <c r="B3" t="s">
-        <v>207</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
         <v>206</v>
-      </c>
-      <c r="B4" t="s">
-        <v>207</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
         <v>206</v>
-      </c>
-      <c r="B5" t="s">
-        <v>207</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
         <v>206</v>
-      </c>
-      <c r="B6" t="s">
-        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
         <v>206</v>
-      </c>
-      <c r="B7" t="s">
-        <v>207</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
         <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>207</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
         <v>206</v>
-      </c>
-      <c r="B9" t="s">
-        <v>207</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
         <v>206</v>
-      </c>
-      <c r="B10" t="s">
-        <v>207</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
         <v>206</v>
-      </c>
-      <c r="B11" t="s">
-        <v>207</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" t="s">
         <v>206</v>
-      </c>
-      <c r="B12" t="s">
-        <v>207</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
         <v>206</v>
-      </c>
-      <c r="B13" t="s">
-        <v>207</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
         <v>206</v>
-      </c>
-      <c r="B14" t="s">
-        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
         <v>206</v>
-      </c>
-      <c r="B15" t="s">
-        <v>207</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -1558,10 +1558,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
         <v>206</v>
-      </c>
-      <c r="B16" t="s">
-        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
         <v>206</v>
-      </c>
-      <c r="B17" t="s">
-        <v>207</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
         <v>206</v>
-      </c>
-      <c r="B18" t="s">
-        <v>207</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
         <v>206</v>
-      </c>
-      <c r="B19" t="s">
-        <v>207</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -1614,10 +1614,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
@@ -1782,27 +1782,27 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
         <v>49</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
         <v>50</v>
@@ -1810,13 +1810,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
         <v>51</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -1838,13 +1838,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -1852,13 +1852,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
         <v>54</v>
@@ -1866,41 +1866,41 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" t="s">
         <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
         <v>58</v>
-      </c>
-      <c r="F39" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
         <v>59</v>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
         <v>60</v>
@@ -1922,13 +1922,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
         <v>61</v>
@@ -1936,55 +1936,55 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
         <v>209</v>
       </c>
       <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
         <v>63</v>
-      </c>
-      <c r="F44" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
         <v>65</v>
-      </c>
-      <c r="F45" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
         <v>66</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
         <v>67</v>
@@ -2006,13 +2006,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
         <v>68</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
         <v>69</v>
@@ -2034,13 +2034,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F50" t="s">
         <v>70</v>
@@ -2048,69 +2048,69 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
         <v>72</v>
-      </c>
-      <c r="F51" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
         <v>210</v>
       </c>
       <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s">
         <v>74</v>
-      </c>
-      <c r="F53" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" t="s">
         <v>76</v>
-      </c>
-      <c r="F54" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
         <v>77</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
         <v>78</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
         <v>79</v>
@@ -2146,13 +2146,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F58" t="s">
         <v>80</v>
@@ -2160,13 +2160,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F59" t="s">
         <v>81</v>
@@ -2174,69 +2174,69 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" t="s">
         <v>83</v>
-      </c>
-      <c r="F60" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s">
         <v>211</v>
       </c>
       <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" t="s">
         <v>85</v>
-      </c>
-      <c r="F62" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" t="s">
         <v>87</v>
-      </c>
-      <c r="F63" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>88</v>
@@ -2244,13 +2244,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
         <v>89</v>
@@ -2258,13 +2258,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
         <v>90</v>
@@ -2272,13 +2272,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s">
         <v>91</v>
@@ -2286,13 +2286,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
         <v>92</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F69" t="s">
         <v>93</v>
@@ -2314,13 +2314,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F70" t="s">
         <v>94</v>
@@ -2328,27 +2328,27 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
         <v>96</v>
-      </c>
-      <c r="F71" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
         <v>97</v>
@@ -2356,10 +2356,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -2370,55 +2370,55 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B75" t="s">
         <v>212</v>
       </c>
       <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" t="s">
         <v>100</v>
-      </c>
-      <c r="F75" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
         <v>102</v>
-      </c>
-      <c r="F76" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F77" t="s">
         <v>103</v>
@@ -2426,13 +2426,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
         <v>104</v>
@@ -2440,13 +2440,13 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F79" t="s">
         <v>105</v>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="F80" t="s">
         <v>106</v>
@@ -2468,24 +2468,24 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s">
         <v>108</v>
-      </c>
-      <c r="F81" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
@@ -2496,55 +2496,55 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B84" t="s">
         <v>213</v>
       </c>
       <c r="C84" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" t="s">
         <v>111</v>
-      </c>
-      <c r="F84" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
         <v>113</v>
-      </c>
-      <c r="F85" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F86" t="s">
         <v>114</v>
@@ -2552,13 +2552,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
         <v>115</v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F88" t="s">
         <v>116</v>
@@ -2580,69 +2580,69 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
         <v>118</v>
-      </c>
-      <c r="F89" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B91" t="s">
         <v>214</v>
       </c>
       <c r="C91" t="s">
+        <v>121</v>
+      </c>
+      <c r="F91" t="s">
         <v>120</v>
-      </c>
-      <c r="F91" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" t="s">
         <v>122</v>
-      </c>
-      <c r="F92" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="F93" t="s">
         <v>123</v>
@@ -2650,27 +2650,27 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
         <v>125</v>
-      </c>
-      <c r="F94" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F95" t="s">
         <v>126</v>
@@ -2678,10 +2678,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -2692,55 +2692,55 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B98" t="s">
         <v>215</v>
       </c>
       <c r="C98" t="s">
+        <v>130</v>
+      </c>
+      <c r="F98" t="s">
         <v>129</v>
-      </c>
-      <c r="F98" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
         <v>131</v>
-      </c>
-      <c r="F99" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
         <v>132</v>
@@ -2748,13 +2748,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="F101" t="s">
         <v>133</v>
@@ -2762,69 +2762,69 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s">
         <v>135</v>
-      </c>
-      <c r="F102" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="F103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B104" t="s">
         <v>216</v>
       </c>
       <c r="C104" t="s">
+        <v>138</v>
+      </c>
+      <c r="F104" t="s">
         <v>137</v>
-      </c>
-      <c r="F104" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" t="s">
         <v>139</v>
-      </c>
-      <c r="F105" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
         <v>140</v>
@@ -2832,13 +2832,13 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F107" t="s">
         <v>141</v>
@@ -2846,13 +2846,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F108" t="s">
         <v>142</v>
@@ -2860,13 +2860,13 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="F109" t="s">
         <v>143</v>
@@ -2874,27 +2874,27 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" t="s">
         <v>145</v>
-      </c>
-      <c r="F110" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F111" t="s">
         <v>146</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
@@ -2916,55 +2916,55 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="F113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
         <v>217</v>
       </c>
       <c r="C114" t="s">
+        <v>150</v>
+      </c>
+      <c r="F114" t="s">
         <v>149</v>
-      </c>
-      <c r="F114" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" t="s">
         <v>151</v>
-      </c>
-      <c r="F115" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F116" t="s">
         <v>152</v>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="F117" t="s">
         <v>153</v>
@@ -2986,69 +2986,69 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
         <v>155</v>
-      </c>
-      <c r="F118" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="F119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B120" t="s">
         <v>218</v>
       </c>
       <c r="C120" t="s">
+        <v>158</v>
+      </c>
+      <c r="F120" t="s">
         <v>157</v>
-      </c>
-      <c r="F120" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B121" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C121" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" t="s">
         <v>159</v>
-      </c>
-      <c r="F121" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F122" t="s">
         <v>160</v>
@@ -3056,13 +3056,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="F123" t="s">
         <v>161</v>
@@ -3070,69 +3070,69 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C124" t="s">
+        <v>55</v>
+      </c>
+      <c r="F124" t="s">
         <v>163</v>
-      </c>
-      <c r="F124" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C125" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="F125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B126" t="s">
         <v>219</v>
       </c>
       <c r="C126" t="s">
+        <v>166</v>
+      </c>
+      <c r="F126" t="s">
         <v>165</v>
-      </c>
-      <c r="F126" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B127" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C127" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" t="s">
         <v>167</v>
-      </c>
-      <c r="F127" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
         <v>168</v>
@@ -3140,13 +3140,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B129" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F129" t="s">
         <v>169</v>
@@ -3154,13 +3154,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F130" t="s">
         <v>170</v>
@@ -3168,13 +3168,13 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F131" t="s">
         <v>171</v>
@@ -3182,13 +3182,13 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
         <v>172</v>
@@ -3196,13 +3196,13 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B133" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F133" t="s">
         <v>173</v>
@@ -3210,13 +3210,13 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F134" t="s">
         <v>174</v>
@@ -3224,13 +3224,13 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F135" t="s">
         <v>175</v>
@@ -3238,13 +3238,13 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B136" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="F136" t="s">
         <v>176</v>
@@ -3252,69 +3252,69 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B137" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C137" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" t="s">
         <v>178</v>
-      </c>
-      <c r="F137" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="F138" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B139" t="s">
         <v>220</v>
       </c>
       <c r="C139" t="s">
+        <v>181</v>
+      </c>
+      <c r="F139" t="s">
         <v>180</v>
-      </c>
-      <c r="F139" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B140" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C140" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" t="s">
         <v>182</v>
-      </c>
-      <c r="F140" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B141" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F141" t="s">
         <v>183</v>
@@ -3322,13 +3322,13 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B142" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F142" t="s">
         <v>184</v>
@@ -3336,13 +3336,13 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B143" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
         <v>185</v>
@@ -3350,13 +3350,13 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F144" t="s">
         <v>186</v>
@@ -3364,13 +3364,13 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B145" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C145" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F145" t="s">
         <v>187</v>
@@ -3378,13 +3378,13 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B146" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F146" t="s">
         <v>188</v>
@@ -3392,13 +3392,13 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C147" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="F147" t="s">
         <v>189</v>
@@ -3406,27 +3406,27 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" t="s">
         <v>191</v>
-      </c>
-      <c r="F148" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B149" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F149" t="s">
         <v>192</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
@@ -3448,55 +3448,55 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B151" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="F151" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B152" t="s">
         <v>221</v>
       </c>
       <c r="C152" t="s">
+        <v>196</v>
+      </c>
+      <c r="F152" t="s">
         <v>195</v>
-      </c>
-      <c r="F152" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B153" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C153" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" t="s">
         <v>197</v>
-      </c>
-      <c r="F153" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
         <v>198</v>
@@ -3504,13 +3504,13 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F155" t="s">
         <v>199</v>
@@ -3518,13 +3518,13 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B156" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
         <v>200</v>
@@ -3532,13 +3532,13 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B157" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="F157" t="s">
         <v>201</v>
@@ -3546,44 +3546,30 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B158" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s">
         <v>203</v>
-      </c>
-      <c r="F158" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B159" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="F159" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" t="s">
-        <v>206</v>
-      </c>
-      <c r="B160" t="s">
-        <v>222</v>
-      </c>
-      <c r="C160" t="s">
-        <v>205</v>
-      </c>
-      <c r="F160" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
